--- a/map/地图数据.xlsx
+++ b/map/地图数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cks\校园外卖快递取送投递系统\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954FB259-0B7D-448B-9402-7279C8CBA2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5231800-39D2-4356-8243-04296E0DC11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{33294335-40DC-4F61-94DE-CE40AB4EF1C4}"/>
   </bookViews>
@@ -855,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51E1346-6214-40F3-B8B9-3B7497886031}">
-  <dimension ref="A1:C408"/>
+  <dimension ref="A1:C409"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="K405" sqref="K405"/>
+      <selection activeCell="D406" sqref="D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4428,6 +4428,14 @@
         <v>252222</v>
       </c>
     </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="C409" s="2">
+        <v>249207</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/map/地图数据.xlsx
+++ b/map/地图数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cks\校园外卖快递取送投递系统\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5231800-39D2-4356-8243-04296E0DC11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429DAFE5-B02C-415C-9D1D-F9CF896AFA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{33294335-40DC-4F61-94DE-CE40AB4EF1C4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{33294335-40DC-4F61-94DE-CE40AB4EF1C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -857,17 +857,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51E1346-6214-40F3-B8B9-3B7497886031}">
   <dimension ref="A1:C409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="D406" sqref="D406"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.08203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -878,7 +878,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -889,7 +889,7 @@
         <v>854143</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -900,7 +900,7 @@
         <v>971165</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -911,7 +911,7 @@
         <v>857239</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -922,7 +922,7 @@
         <v>857228</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -933,7 +933,7 @@
         <v>880383</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -944,7 +944,7 @@
         <v>381130</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -955,7 +955,7 @@
         <v>451177</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -966,7 +966,7 @@
         <v>521278</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -977,7 +977,7 @@
         <v>534284</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -988,7 +988,7 @@
         <v>549284</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -999,7 +999,7 @@
         <v>550269</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>125222</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>151214</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>120204</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>188152</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>380112</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>114281</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>858143</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>713139</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>178189</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>53283</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>81284</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>103286</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>39292</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>54296</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>81296</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>33301</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>27308</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>37319</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>58316</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>81311</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>39331</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>59327</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>85322</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>106317</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>115303</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>118320</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>114327</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>164195</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>160182</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>142201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>135187</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>211232</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>158227</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>249204</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>219189</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>211176</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>195188</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>191175</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>200201</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>202210</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>203220</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>220219</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>219210</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>220201</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>436323</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>435335</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>470339</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>578285</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>549240</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>523252</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>523239</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>473238</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>580268</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>581254</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>548253</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>584301</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>584312</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>584322</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>583333</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>583344</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>884238</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>884255</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>883212</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>884198</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>891139</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>857128</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>875128</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>859117</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>875116</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>876107</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>891107</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>908151</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>935151</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>970152</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>915139</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>937139</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>972139</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>988139</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>914129</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>905119</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>919109</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>903100</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>910113</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>891113</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>875112</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>868112</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>868100</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>867112</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>866112</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>876133</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>895133</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>906134</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>922135</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>922124</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>943131</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>950135</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>961134</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>962145</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>970145</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>961157</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>956157</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>951157</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>950145</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>936146</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>922146</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>922157</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>895156</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>870156</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>866156</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>866144</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>852156</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>845156</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>837156</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>845133</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>869205</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>883204</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>897205</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>922205</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>934205</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>957205</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>868218</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>883220</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>897220</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>868231</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>883231</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>897232</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>868244</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>885244</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>896244</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>934275</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>901291</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>868291</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>865384</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>706148</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>560141</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>512140</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>511173</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>563203</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>511202</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>511231</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>524231</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>536231</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>547231</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>561231</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>595232</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>595249</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>300335</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>903113</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>561247</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>562262</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>580262</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>595262</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>595276</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>580276</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>562275</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>561293</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>581294</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>596295</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>572307</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>584307</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>595307</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>595317</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>584317</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>572317</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>571328</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>583328</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>595328</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>595339</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>583339</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>571339</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>571349</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>583349</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>594349</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>548294</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>533293</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>510294</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>510278</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>511269</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>510261</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>535261</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>473245</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>549261</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>548247</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>535247</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>523246</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>511246</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>458245</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>459229</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>458260</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>458269</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>458292</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>489293</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>489329</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>457329</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>457339</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>457345</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>438344</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>435329</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>458366</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>438367</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>413367</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>413353</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>414343</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>414329</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -2972,15 +2972,15 @@
         <v>414319</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="C227" s="2">
-        <v>414219</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+        <v>414292</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>414259</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>390259</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>390290</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>395290</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>396319</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>404353</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>404320</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>367352</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>367393</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>329353</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>331335</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>331318</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>368320</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>367290</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>332290</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>332259</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>390228</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>332228</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>459201</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>460178</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>460172</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>391199</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>391170</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>331169</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>333198</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>460138</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>392137</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>392112</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>333135</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>232136</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>282168</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>281198</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>281228</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>280290</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>289289</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>308288</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>301301</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>322319</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>293316</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>280289</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>280304</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>280317</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>279379</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>316352</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>279368</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>232381</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>223344</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>170400</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>159361</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>214307</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>148323</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>207281</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>144298</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>251252</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>264293</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>231224</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>211225</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>193225</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>230215</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>219215</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>211215</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>203214</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>190214</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>230207</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>220204</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>211204</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>201204</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>187203</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>230196</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>220196</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>212196</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>201196</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>185196</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>231182</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>211182</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>201182</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>195185</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>201178</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>201167</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>180177</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>182182</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>178167</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>231167</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>123192</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>232135</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>146175</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>151190</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>121181</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>129196</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>142192</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>157188</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>133209</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>144206</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>154203</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>162202</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>166219</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>137225</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>141237</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>128241</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>176228</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>140291</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>111296</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>111292</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>101291</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>94291</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>81290</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>68290</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>55289</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>41296</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>43301</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>37305</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>31307</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>34314</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>26314</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>27327</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>30336</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>37325</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>39335</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>46324</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>48333</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>57320</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>60330</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>72328</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>71318</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>68304</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>95303</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>109301</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>95314</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>83316</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>119318</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>112319</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>118310</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>859122</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>857132</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>986144</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>910145</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>868225</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>868238</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>560181</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>563189</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>301380</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>308373</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>309369</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>205275</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>238263</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>259264</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>247238</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>258221</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>243224</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>245230</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>173218</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>101296</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>101312</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>112310</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>382137</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>135220</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>131202</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>175158</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>183188</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>100307</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>155222</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>192177</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>561288</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>919113</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>917103</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>890100</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>904103</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>876100</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>267208</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>233384</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>231204</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>201185</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>49305</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>97323</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>969158</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>252222</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
